--- a/data/league_data/spain/18/spain_defending.xlsx
+++ b/data/league_data/spain/18/spain_defending.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{650485B2-2FE7-EB45-8198-E1DB0072173D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544623F-FC7B-F94A-83D8-E9C91B8D5083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="586">
   <si>
     <t>Blocks</t>
   </si>
@@ -733,9 +733,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1775,12 +1772,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2638,14 +2641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2680,7 +2683,7 @@
     <col min="31" max="31" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7794,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8554,7 +8557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9314,12 +9317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>585</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>28</v>
@@ -9409,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10359,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11212,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11972,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12540,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12825,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12920,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13110,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13300,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13680,7 +13683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13773,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13868,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13963,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14058,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14248,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14343,7 +14346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14533,7 +14536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14628,7 +14631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14723,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14818,7 +14821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15008,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15198,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15483,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15578,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15673,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15768,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15863,7 +15866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15958,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16148,7 +16151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16338,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16433,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16623,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16718,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16813,7 +16816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16908,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -17003,7 +17006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -17193,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -17383,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17478,7 +17481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17573,12 +17576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>237</v>
+        <v>584</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>28</v>
@@ -17668,12 +17671,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>28</v>
@@ -17763,12 +17766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>28</v>
@@ -17858,15 +17861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>29</v>
@@ -17953,12 +17956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>69</v>
@@ -18048,15 +18051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>44</v>
@@ -18143,12 +18146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>28</v>
@@ -18238,12 +18241,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>28</v>
@@ -18333,12 +18336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>64</v>
@@ -18428,12 +18431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>28</v>
@@ -18523,12 +18526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>28</v>
@@ -18618,12 +18621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>134</v>
@@ -18713,12 +18716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>28</v>
@@ -18808,12 +18811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>28</v>
@@ -18903,12 +18906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>110</v>
@@ -18998,12 +19001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>28</v>
@@ -19091,12 +19094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>92</v>
@@ -19186,12 +19189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>69</v>
@@ -19281,12 +19284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>28</v>
@@ -19376,12 +19379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>28</v>
@@ -19471,12 +19474,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>28</v>
@@ -19566,12 +19569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>28</v>
@@ -19661,12 +19664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>28</v>
@@ -19756,12 +19759,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>64</v>
@@ -19851,12 +19854,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>28</v>
@@ -19946,12 +19949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>28</v>
@@ -20041,12 +20044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>28</v>
@@ -20136,12 +20139,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>28</v>
@@ -20231,12 +20234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>28</v>
@@ -20326,15 +20329,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>52</v>
@@ -20421,12 +20424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>64</v>
@@ -20516,12 +20519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>28</v>
@@ -20611,15 +20614,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>82</v>
@@ -20706,12 +20709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>28</v>
@@ -20801,12 +20804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>28</v>
@@ -20896,12 +20899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>92</v>
@@ -20991,12 +20994,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>28</v>
@@ -21086,12 +21089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>28</v>
@@ -21181,12 +21184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>28</v>
@@ -21276,18 +21279,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>85</v>
@@ -21371,12 +21374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>64</v>
@@ -21466,12 +21469,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>28</v>
@@ -21561,12 +21564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>28</v>
@@ -21656,12 +21659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>64</v>
@@ -21751,12 +21754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>28</v>
@@ -21846,12 +21849,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>84</v>
@@ -21941,12 +21944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>28</v>
@@ -22036,12 +22039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>110</v>
@@ -22131,12 +22134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>69</v>
@@ -22226,12 +22229,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>28</v>
@@ -22321,15 +22324,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>29</v>
@@ -22416,12 +22419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>92</v>
@@ -22511,12 +22514,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>28</v>
@@ -22606,12 +22609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>28</v>
@@ -22701,15 +22704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>29</v>
@@ -22796,12 +22799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>28</v>
@@ -22891,12 +22894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>114</v>
@@ -22986,12 +22989,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>134</v>
@@ -23081,12 +23084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>28</v>
@@ -23176,12 +23179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>102</v>
@@ -23271,12 +23274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>134</v>
@@ -23366,12 +23369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>28</v>
@@ -23461,12 +23464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>28</v>
@@ -23556,12 +23559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>28</v>
@@ -23651,12 +23654,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>28</v>
@@ -23746,15 +23749,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>52</v>
@@ -23841,15 +23844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>52</v>
@@ -23936,12 +23939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>92</v>
@@ -24031,12 +24034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>64</v>
@@ -24126,12 +24129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>97</v>
@@ -24221,12 +24224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>28</v>
@@ -24316,15 +24319,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>82</v>
@@ -24411,12 +24414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>28</v>
@@ -24506,12 +24509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>114</v>
@@ -24601,12 +24604,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>28</v>
@@ -24696,12 +24699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>28</v>
@@ -24791,12 +24794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>28</v>
@@ -24886,12 +24889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>28</v>
@@ -24981,12 +24984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>28</v>
@@ -25076,15 +25079,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>44</v>
@@ -25171,12 +25174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>28</v>
@@ -25266,12 +25269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>64</v>
@@ -25361,12 +25364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>28</v>
@@ -25456,12 +25459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>114</v>
@@ -25551,12 +25554,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>28</v>
@@ -25646,12 +25649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>28</v>
@@ -25741,12 +25744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>28</v>
@@ -25836,12 +25839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>28</v>
@@ -25931,12 +25934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>28</v>
@@ -26026,12 +26029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>28</v>
@@ -26121,12 +26124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>28</v>
@@ -26216,15 +26219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>76</v>
@@ -26311,12 +26314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>28</v>
@@ -26406,12 +26409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>28</v>
@@ -26501,12 +26504,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>28</v>
@@ -26596,12 +26599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>28</v>
@@ -26691,12 +26694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>28</v>
@@ -26786,12 +26789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>28</v>
@@ -26881,12 +26884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>64</v>
@@ -26976,7 +26979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -27071,12 +27074,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>28</v>
@@ -27166,12 +27169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>28</v>
@@ -27261,12 +27264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>102</v>
@@ -27356,12 +27359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>79</v>
@@ -27451,12 +27454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>28</v>
@@ -27546,12 +27549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>28</v>
@@ -27641,12 +27644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>64</v>
@@ -27736,12 +27739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>110</v>
@@ -27831,7 +27834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27926,12 +27929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>28</v>
@@ -28021,15 +28024,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>52</v>
@@ -28116,12 +28119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>92</v>
@@ -28211,12 +28214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>185</v>
@@ -28306,12 +28309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>47</v>
@@ -28401,15 +28404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>29</v>
@@ -28496,12 +28499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>134</v>
@@ -28591,12 +28594,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>69</v>
@@ -28686,12 +28689,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>28</v>
@@ -28779,12 +28782,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>28</v>
@@ -28874,12 +28877,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>84</v>
@@ -28969,12 +28972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>28</v>
@@ -29064,12 +29067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>69</v>
@@ -29159,15 +29162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>52</v>
@@ -29254,12 +29257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>102</v>
@@ -29349,12 +29352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>47</v>
@@ -29444,15 +29447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>29</v>
@@ -29539,12 +29542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>28</v>
@@ -29634,15 +29637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>44</v>
@@ -29729,12 +29732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>64</v>
@@ -29824,12 +29827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>28</v>
@@ -29919,12 +29922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>206</v>
@@ -30014,15 +30017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>76</v>
@@ -30109,12 +30112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>28</v>
@@ -30204,12 +30207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>69</v>
@@ -30299,15 +30302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>76</v>
@@ -30394,12 +30397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>84</v>
@@ -30489,15 +30492,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>29</v>
@@ -30584,12 +30587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>28</v>
@@ -30679,12 +30682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>64</v>
@@ -30770,12 +30773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>28</v>
@@ -30865,12 +30868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>28</v>
@@ -30960,12 +30963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>102</v>
@@ -31055,12 +31058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>28</v>
@@ -31150,12 +31153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>28</v>
@@ -31245,12 +31248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>47</v>
@@ -31340,12 +31343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>69</v>
@@ -31435,12 +31438,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>185</v>
@@ -31530,12 +31533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>92</v>
@@ -31625,12 +31628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>28</v>
@@ -31720,12 +31723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>28</v>
@@ -31815,12 +31818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>64</v>
@@ -31910,12 +31913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>79</v>
@@ -32005,12 +32008,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>28</v>
@@ -32100,12 +32103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>28</v>
@@ -32195,12 +32198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>28</v>
@@ -32290,12 +32293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>69</v>
@@ -32385,12 +32388,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>28</v>
@@ -32480,15 +32483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>52</v>
@@ -32575,12 +32578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>64</v>
@@ -32670,15 +32673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>44</v>
@@ -32765,12 +32768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>28</v>
@@ -32860,12 +32863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -32955,12 +32958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>28</v>
@@ -33050,12 +33053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>64</v>
@@ -33145,12 +33148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>174</v>
@@ -33240,12 +33243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>28</v>
@@ -33331,12 +33334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>28</v>
@@ -33426,12 +33429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>110</v>
@@ -33521,12 +33524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>28</v>
@@ -33612,12 +33615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>47</v>
@@ -33707,12 +33710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>143</v>
@@ -33802,12 +33805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>84</v>
@@ -33897,12 +33900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>28</v>
@@ -33992,12 +33995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>28</v>
@@ -34087,12 +34090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>28</v>
@@ -34182,12 +34185,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>28</v>
@@ -34277,12 +34280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>28</v>
@@ -34370,12 +34373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>108</v>
@@ -34465,15 +34468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>76</v>
@@ -34560,12 +34563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>28</v>
@@ -34655,12 +34658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>28</v>
@@ -34750,15 +34753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>82</v>
@@ -34845,12 +34848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>84</v>
@@ -34940,12 +34943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>92</v>
@@ -35035,15 +35038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>76</v>
@@ -35130,12 +35133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>28</v>
@@ -35221,12 +35224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>28</v>
@@ -35316,12 +35319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>28</v>
@@ -35411,12 +35414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>28</v>
@@ -35506,12 +35509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>28</v>
@@ -35601,12 +35604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>28</v>
@@ -35696,12 +35699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>28</v>
@@ -35791,15 +35794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>29</v>
@@ -35886,12 +35889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>28</v>
@@ -35981,12 +35984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>84</v>
@@ -36076,12 +36079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>28</v>
@@ -36171,12 +36174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>62</v>
@@ -36266,12 +36269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>28</v>
@@ -36361,12 +36364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>28</v>
@@ -36456,12 +36459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>28</v>
@@ -36551,12 +36554,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>28</v>
@@ -36644,12 +36647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>28</v>
@@ -36739,12 +36742,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>84</v>
@@ -36834,12 +36837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>134</v>
@@ -36929,15 +36932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>29</v>
@@ -37024,12 +37027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>28</v>
@@ -37119,12 +37122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>28</v>
@@ -37214,12 +37217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>97</v>
@@ -37309,12 +37312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>69</v>
@@ -37404,12 +37407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>28</v>
@@ -37495,12 +37498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>206</v>
@@ -37590,12 +37593,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>28</v>
@@ -37685,12 +37688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>28</v>
@@ -37780,12 +37783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>84</v>
@@ -37875,12 +37878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>28</v>
@@ -37970,12 +37973,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>28</v>
@@ -38065,12 +38068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>28</v>
@@ -38160,12 +38163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>28</v>
@@ -38255,12 +38258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>40</v>
@@ -38350,12 +38353,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>28</v>
@@ -38445,12 +38448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>28</v>
@@ -38540,15 +38543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>82</v>
@@ -38635,12 +38638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>28</v>
@@ -38730,12 +38733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>28</v>
@@ -38825,15 +38828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>76</v>
@@ -38920,12 +38923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>84</v>
@@ -39015,15 +39018,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>82</v>
@@ -39110,12 +39113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>114</v>
@@ -39205,12 +39208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>64</v>
@@ -39300,12 +39303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>28</v>
@@ -39395,12 +39398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
@@ -39490,12 +39493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>62</v>
@@ -39585,12 +39588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>28</v>
@@ -39680,12 +39683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>28</v>
@@ -39775,12 +39778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>28</v>
@@ -39870,15 +39873,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>29</v>
@@ -39965,12 +39968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>28</v>
@@ -40060,12 +40063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>28</v>
@@ -40155,12 +40158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>64</v>
@@ -40250,12 +40253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>28</v>
@@ -40345,12 +40348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>47</v>
@@ -40440,12 +40443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>28</v>
@@ -40489,18 +40492,18 @@
       <c r="AD399" s="2"/>
       <c r="AE399" s="2"/>
     </row>
-    <row r="400" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>65</v>
@@ -40584,12 +40587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>134</v>
@@ -40679,12 +40682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>84</v>
@@ -40774,12 +40777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>28</v>
@@ -40869,12 +40872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>28</v>
@@ -40964,12 +40967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>97</v>
@@ -41059,12 +41062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>64</v>
@@ -41154,15 +41157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>32</v>
@@ -41249,12 +41252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>64</v>
@@ -41344,12 +41347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>28</v>
@@ -41439,12 +41442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>92</v>
@@ -41534,12 +41537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41629,12 +41632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>28</v>
@@ -41724,15 +41727,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>76</v>
@@ -41819,12 +41822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>28</v>
@@ -41914,12 +41917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>84</v>
@@ -42009,12 +42012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>28</v>
@@ -42104,12 +42107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>47</v>
@@ -42199,15 +42202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>82</v>
@@ -42294,15 +42297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>82</v>
@@ -42389,12 +42392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42484,12 +42487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>114</v>
@@ -42579,12 +42582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>84</v>
@@ -42674,12 +42677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>28</v>
@@ -42765,12 +42768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>64</v>
@@ -42856,15 +42859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>29</v>
@@ -42949,12 +42952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>28</v>
@@ -43044,12 +43047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>28</v>
@@ -43139,15 +43142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>29</v>
@@ -43234,12 +43237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>62</v>
@@ -43329,12 +43332,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>28</v>
@@ -43424,15 +43427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>44</v>
@@ -43519,15 +43522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>44</v>
@@ -43614,12 +43617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>28</v>
@@ -43705,12 +43708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>64</v>
@@ -43800,12 +43803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>28</v>
@@ -43895,12 +43898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>185</v>
@@ -43990,12 +43993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>64</v>
@@ -44085,15 +44088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>82</v>
@@ -44180,12 +44183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44275,12 +44278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>206</v>
@@ -44370,12 +44373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44465,12 +44468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>28</v>
@@ -44560,15 +44563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>76</v>
@@ -44655,12 +44658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>114</v>
@@ -44750,12 +44753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>102</v>
@@ -44845,12 +44848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>28</v>
@@ -44940,12 +44943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>28</v>
@@ -45035,12 +45038,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>28</v>
@@ -45128,12 +45131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45223,12 +45226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45318,12 +45321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>28</v>
@@ -45413,12 +45416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>92</v>
@@ -45508,12 +45511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>28</v>
@@ -45603,12 +45606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45696,12 +45699,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45787,12 +45790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>102</v>
@@ -45882,12 +45885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>64</v>
@@ -45977,12 +45980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>28</v>
@@ -46070,12 +46073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>28</v>
@@ -46165,12 +46168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>28</v>
@@ -46260,15 +46263,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>29</v>
@@ -46355,12 +46358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>108</v>
@@ -46450,12 +46453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>64</v>
@@ -46545,12 +46548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>28</v>
@@ -46640,15 +46643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>76</v>
@@ -46735,12 +46738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>28</v>
@@ -46830,12 +46833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>28</v>
@@ -46925,12 +46928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47020,12 +47023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47115,12 +47118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47210,12 +47213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>28</v>
@@ -47305,12 +47308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>102</v>
@@ -47400,12 +47403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>28</v>
@@ -47495,12 +47498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47586,12 +47589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>64</v>
@@ -47681,12 +47684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>28</v>
@@ -47776,12 +47779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>114</v>
@@ -47871,12 +47874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>174</v>
@@ -47966,12 +47969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48061,12 +48064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>28</v>
@@ -48156,12 +48159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>92</v>
@@ -48251,12 +48254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48346,12 +48349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>28</v>
@@ -48441,12 +48444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48536,12 +48539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48631,12 +48634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>64</v>
@@ -48722,15 +48725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>29</v>
@@ -48817,12 +48820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>28</v>
@@ -48912,15 +48915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>32</v>
@@ -49003,12 +49006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49096,12 +49099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>28</v>
@@ -49191,12 +49194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>28</v>
@@ -49286,12 +49289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49381,15 +49384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>52</v>
@@ -49476,12 +49479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49571,12 +49574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49666,12 +49669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>28</v>
@@ -49761,12 +49764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>28</v>
@@ -49856,12 +49859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>114</v>
@@ -49951,15 +49954,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>29</v>
@@ -50046,7 +50049,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:31" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/18/spain_defending.xlsx
+++ b/data/league_data/spain/18/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544623F-FC7B-F94A-83D8-E9C91B8D5083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5EDF6-5E1B-114A-B68F-F6CDE393F6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="587">
   <si>
     <t>Blocks</t>
   </si>
@@ -1315,9 +1315,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1778,6 +1775,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2644,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4578,7 +4581,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>586</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -9322,7 +9325,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>28</v>
@@ -17581,7 +17584,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>28</v>
@@ -34948,7 +34951,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>431</v>
+        <v>585</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>92</v>
@@ -35043,7 +35046,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>316</v>
@@ -35138,7 +35141,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>28</v>
@@ -35229,7 +35232,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>28</v>
@@ -35324,7 +35327,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>28</v>
@@ -35419,7 +35422,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>28</v>
@@ -35514,7 +35517,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>28</v>
@@ -35609,7 +35612,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>28</v>
@@ -35704,7 +35707,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>28</v>
@@ -35799,10 +35802,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>29</v>
@@ -35894,7 +35897,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>28</v>
@@ -35989,7 +35992,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>84</v>
@@ -36084,7 +36087,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>28</v>
@@ -36179,7 +36182,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>62</v>
@@ -36274,7 +36277,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>28</v>
@@ -36369,7 +36372,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>28</v>
@@ -36464,7 +36467,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>28</v>
@@ -36559,7 +36562,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>28</v>
@@ -36652,7 +36655,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>28</v>
@@ -36747,7 +36750,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>84</v>
@@ -36842,7 +36845,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>134</v>
@@ -36937,7 +36940,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>368</v>
@@ -37032,7 +37035,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>28</v>
@@ -37127,7 +37130,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>28</v>
@@ -37222,7 +37225,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>97</v>
@@ -37317,7 +37320,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>69</v>
@@ -37412,7 +37415,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>28</v>
@@ -37503,7 +37506,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>206</v>
@@ -37598,7 +37601,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>28</v>
@@ -37693,7 +37696,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>28</v>
@@ -37788,7 +37791,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>84</v>
@@ -37883,7 +37886,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>28</v>
@@ -37978,7 +37981,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>28</v>
@@ -38073,7 +38076,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>28</v>
@@ -38168,7 +38171,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>28</v>
@@ -38263,7 +38266,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>40</v>
@@ -38358,7 +38361,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>28</v>
@@ -38453,7 +38456,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>28</v>
@@ -38548,7 +38551,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>337</v>
@@ -38643,7 +38646,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>28</v>
@@ -38738,7 +38741,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>28</v>
@@ -38833,7 +38836,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>316</v>
@@ -38928,7 +38931,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>84</v>
@@ -39023,7 +39026,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>240</v>
@@ -39118,7 +39121,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>114</v>
@@ -39213,7 +39216,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>64</v>
@@ -39308,7 +39311,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>28</v>
@@ -39403,7 +39406,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
@@ -39498,7 +39501,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>62</v>
@@ -39593,7 +39596,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>28</v>
@@ -39688,7 +39691,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>28</v>
@@ -39783,7 +39786,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>28</v>
@@ -39973,7 +39976,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>28</v>
@@ -40068,7 +40071,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>28</v>
@@ -40163,7 +40166,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>64</v>
@@ -40258,7 +40261,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>28</v>
@@ -40353,7 +40356,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>47</v>
@@ -40448,7 +40451,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>28</v>
@@ -40497,7 +40500,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
@@ -40592,7 +40595,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>134</v>
@@ -40687,7 +40690,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>84</v>
@@ -40877,7 +40880,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>28</v>
@@ -40972,7 +40975,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>97</v>
@@ -41067,7 +41070,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>64</v>
@@ -41162,7 +41165,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>297</v>
@@ -41257,7 +41260,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>64</v>
@@ -41352,7 +41355,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>28</v>
@@ -41447,7 +41450,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>92</v>
@@ -41542,7 +41545,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41637,7 +41640,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>28</v>
@@ -41732,7 +41735,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>368</v>
@@ -41827,7 +41830,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>28</v>
@@ -41922,7 +41925,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>84</v>
@@ -42017,7 +42020,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>28</v>
@@ -42112,7 +42115,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>47</v>
@@ -42207,10 +42210,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>82</v>
@@ -42302,7 +42305,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>368</v>
@@ -42397,7 +42400,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42492,7 +42495,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>114</v>
@@ -42587,7 +42590,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>84</v>
@@ -42682,7 +42685,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>28</v>
@@ -42773,7 +42776,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>64</v>
@@ -42864,7 +42867,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>240</v>
@@ -42957,7 +42960,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>28</v>
@@ -43052,7 +43055,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>28</v>
@@ -43147,10 +43150,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>29</v>
@@ -43242,7 +43245,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>62</v>
@@ -43337,7 +43340,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>28</v>
@@ -43432,10 +43435,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>44</v>
@@ -43527,7 +43530,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>297</v>
@@ -43622,7 +43625,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>28</v>
@@ -43713,7 +43716,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>64</v>
@@ -43808,7 +43811,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>28</v>
@@ -43903,7 +43906,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>185</v>
@@ -43998,7 +44001,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>64</v>
@@ -44093,7 +44096,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>368</v>
@@ -44188,7 +44191,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44283,7 +44286,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>206</v>
@@ -44378,7 +44381,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44473,7 +44476,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>28</v>
@@ -44568,10 +44571,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>76</v>
@@ -44663,7 +44666,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>114</v>
@@ -44758,7 +44761,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>102</v>
@@ -44853,7 +44856,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>28</v>
@@ -45043,7 +45046,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>28</v>
@@ -45136,7 +45139,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45231,7 +45234,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45326,7 +45329,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>28</v>
@@ -45421,7 +45424,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>92</v>
@@ -45516,7 +45519,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>28</v>
@@ -45611,7 +45614,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45704,7 +45707,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45795,7 +45798,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>102</v>
@@ -45890,7 +45893,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>64</v>
@@ -45985,7 +45988,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>28</v>
@@ -46078,7 +46081,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>28</v>
@@ -46173,7 +46176,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>28</v>
@@ -46268,10 +46271,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>29</v>
@@ -46458,7 +46461,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>64</v>
@@ -46553,7 +46556,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>28</v>
@@ -46648,10 +46651,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>76</v>
@@ -46743,7 +46746,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>28</v>
@@ -46838,7 +46841,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>28</v>
@@ -46933,7 +46936,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47028,7 +47031,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47123,7 +47126,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47218,7 +47221,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>28</v>
@@ -47313,7 +47316,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>102</v>
@@ -47408,7 +47411,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>28</v>
@@ -47503,7 +47506,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47594,7 +47597,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>64</v>
@@ -47689,7 +47692,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>28</v>
@@ -47784,7 +47787,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>114</v>
@@ -47879,7 +47882,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>174</v>
@@ -47974,7 +47977,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48069,7 +48072,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>28</v>
@@ -48164,7 +48167,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>92</v>
@@ -48259,7 +48262,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48354,7 +48357,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>28</v>
@@ -48449,7 +48452,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48544,7 +48547,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48639,7 +48642,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>64</v>
@@ -48730,10 +48733,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>29</v>
@@ -48825,7 +48828,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>28</v>
@@ -48920,7 +48923,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>368</v>
@@ -49011,7 +49014,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49104,7 +49107,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>28</v>
@@ -49199,7 +49202,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>28</v>
@@ -49294,7 +49297,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49389,10 +49392,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>52</v>
@@ -49484,7 +49487,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49579,7 +49582,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49674,7 +49677,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>28</v>
@@ -49769,7 +49772,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>28</v>
@@ -49864,7 +49867,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>114</v>
